--- a/testcases/test-cases-template.xlsx
+++ b/testcases/test-cases-template.xlsx
@@ -362,7 +362,77 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Test Type (Exploratory, Monkey, AdHoc) 
+      <t xml:space="preserve">Test Type (BVT, Smoke, Upgrade, Sanity) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun los cambios de codigo, la etapa de desarollo, )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Domanin/Non-Domain) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun el dominio de: la app, la logica de negocio)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/structural-testing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Structural /Non-Structural) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun la estructura, diseno, arquitectura del codigo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Web, Desktop, Mobile) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun el tipo de aplicacion)</t>
+    </r>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Tours, Exploratory, Monkey, AdHoc) 
 </t>
     </r>
     <r>
@@ -375,76 +445,6 @@
       </rPr>
       <t>(Segun su formalidad)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (BVT, Smoke, Upgrade, Sanity) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun los cambios de codigo, la etapa de desarollo, )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Domanin/Non-Domain) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun el dominio de: la app, la logica de negocio)</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.javatpoint.com/structural-testing</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Structural /Non-Structural) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun la estructura, diseno, arquitectura del codigo)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Web, Desktop, Mobile) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun el tipo de aplicacion)</t>
-    </r>
-  </si>
-  <si>
-    <t>Web</t>
   </si>
 </sst>
 </file>
@@ -838,6 +838,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,12 +865,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -876,18 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1231,34 +1231,34 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
@@ -1271,11 +1271,11 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
@@ -1288,11 +1288,11 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="43">
         <v>44567</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
@@ -1305,11 +1305,11 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
@@ -1322,11 +1322,11 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="36">
         <v>44567</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
@@ -1339,11 +1339,11 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
@@ -1358,10 +1358,10 @@
       <c r="A10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1371,10 +1371,10 @@
       <c r="A11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -1384,10 +1384,10 @@
       <c r="A12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -1397,10 +1397,10 @@
       <c r="A13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
@@ -1410,10 +1410,10 @@
       <c r="A14" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
@@ -1421,12 +1421,12 @@
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="A15" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -1436,10 +1436,10 @@
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
@@ -1447,12 +1447,12 @@
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
@@ -1462,10 +1462,10 @@
       <c r="A18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
@@ -1475,10 +1475,10 @@
       <c r="A19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
@@ -1488,10 +1488,10 @@
       <c r="A20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
@@ -1501,10 +1501,10 @@
       <c r="A21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
@@ -1512,12 +1512,12 @@
     </row>
     <row r="22" spans="1:7" ht="24">
       <c r="A22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
@@ -1525,12 +1525,12 @@
     </row>
     <row r="23" spans="1:7" ht="24">
       <c r="A23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
@@ -1538,14 +1538,14 @@
     </row>
     <row r="24" spans="1:7" ht="24">
       <c r="A24" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
@@ -1573,10 +1573,10 @@
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -1586,10 +1586,10 @@
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
@@ -1599,10 +1599,10 @@
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
@@ -1625,8 +1625,8 @@
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -1793,37 +1793,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="fail">

--- a/testcases/test-cases-template.xlsx
+++ b/testcases/test-cases-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories-github\puggysoft\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repositories-github\puggysoft\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Test001" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Project Name:</t>
   </si>
@@ -253,8 +253,154 @@
     <t>Frontend</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Test type (Unit, Integration, System, Acceptance)
+    <t>Puggysoft</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Backend, Frontend, Databases) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun que parte de la app testea)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Dinamic/Static) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun si la app esta en ejecucion)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dinamic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Boundary/Combinatory) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun los datos de entrada)</t>
+    </r>
+  </si>
+  <si>
+    <t>Happy path</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (e2e/non-e2e) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun el workflow de la app)</t>
+    </r>
+  </si>
+  <si>
+    <t>Non-e2e</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Domanin/Non-Domain) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun el dominio de: la app, la logica de negocio)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/structural-testing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Structural /Non-Structural) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun la estructura, diseno, arquitectura del codigo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Web, Desktop, Mobile) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun el tipo de aplicacion)</t>
+    </r>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Tours, Exploratory, Monkey, AdHoc) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Segun su formalidad)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test type (Unit, Components, Integration, System)
 </t>
     </r>
     <r>
@@ -269,11 +415,8 @@
     </r>
   </si>
   <si>
-    <t>Puggysoft</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Backend, Frontend, Databases) 
+    <r>
+      <t xml:space="preserve">Test Type (Happy-path/Non Happy-path) 
 </t>
     </r>
     <r>
@@ -284,12 +427,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Segun que parte de la app testea)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Dinamic/Static) 
+      <t>(Segun la ruta que se toma para realizar una accion en el sistema.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Aceptacion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Aceptacion, Alpha, Beta) 
 </t>
     </r>
     <r>
@@ -300,15 +446,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Segun si la app esta en ejecucion)</t>
-    </r>
-  </si>
-  <si>
-    <t>Dinamic</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Boundary/Combinatory) 
+      <t>(Segun quien lo hace)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (Usability, User Experience, A/B or split, Concept) 
 </t>
     </r>
     <r>
@@ -319,15 +462,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Segun los datos de entrada)</t>
-    </r>
-  </si>
-  <si>
-    <t>Happy path</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Happy-path/Non Happy-path) 
+      <t>(Segun UX Designer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Type (BVT, Smoke, Upgrade, Sanity, Re-testing) 
 </t>
     </r>
     <r>
@@ -338,112 +478,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Segun el workflow de la app)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (e2e/non-e2e) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun el workflow de la app)</t>
-    </r>
-  </si>
-  <si>
-    <t>Non-e2e</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (BVT, Smoke, Upgrade, Sanity) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun los cambios de codigo, la etapa de desarollo, )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Domanin/Non-Domain) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun el dominio de: la app, la logica de negocio)</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.javatpoint.com/structural-testing</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Structural /Non-Structural) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun la estructura, diseno, arquitectura del codigo)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Web, Desktop, Mobile) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun el tipo de aplicacion)</t>
-    </r>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Type (Tours, Exploratory, Monkey, AdHoc) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Segun su formalidad)</t>
+      <t>(Segun los cambios de codigo)</t>
     </r>
   </si>
 </sst>
@@ -829,65 +864,65 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1208,15 +1243,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.5703125" style="1" customWidth="1"/>
@@ -1231,68 +1266,68 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="41"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="34">
         <v>44567</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
@@ -1305,45 +1340,45 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="40">
         <v>44567</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
@@ -1358,10 +1393,10 @@
       <c r="A10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1371,10 +1406,10 @@
       <c r="A11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -1384,10 +1419,10 @@
       <c r="A12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -1397,23 +1432,23 @@
       <c r="A13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="36.75" customHeight="1">
+    <row r="14" spans="1:7" ht="24">
       <c r="A14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
@@ -1421,12 +1456,12 @@
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="A15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -1434,12 +1469,12 @@
     </row>
     <row r="16" spans="1:7" ht="24">
       <c r="A16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
@@ -1447,12 +1482,12 @@
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="31"/>
+        <v>71</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="45"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
@@ -1460,12 +1495,12 @@
     </row>
     <row r="18" spans="1:7" ht="24">
       <c r="A18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
@@ -1473,12 +1508,12 @@
     </row>
     <row r="19" spans="1:7" ht="24">
       <c r="A19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
@@ -1486,12 +1521,12 @@
     </row>
     <row r="20" spans="1:7" ht="24">
       <c r="A20" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
@@ -1499,12 +1534,12 @@
     </row>
     <row r="21" spans="1:7" ht="24">
       <c r="A21" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="31"/>
+        <v>66</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="45"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
@@ -1512,12 +1547,12 @@
     </row>
     <row r="22" spans="1:7" ht="24">
       <c r="A22" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
@@ -1525,12 +1560,12 @@
     </row>
     <row r="23" spans="1:7" ht="24">
       <c r="A23" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
@@ -1538,45 +1573,49 @@
     </row>
     <row r="24" spans="1:7" ht="24">
       <c r="A24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="29" t="s">
-        <v>72</v>
+      <c r="C24" s="45"/>
+      <c r="D24" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="29"/>
+    <row r="25" spans="1:7" ht="24">
+      <c r="A25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="6"/>
+    <row r="26" spans="1:7" ht="24">
+      <c r="A26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="32"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -1584,12 +1623,12 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="44"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
@@ -1597,12 +1636,12 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="32"/>
+        <v>46</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="44"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
@@ -1610,12 +1649,12 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="44"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -1623,188 +1662,199 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="39"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="14">
-        <v>1</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="D36" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" ht="25.5">
+    <row r="37" spans="1:7">
       <c r="A37" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="18"/>
       <c r="D37" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" ht="25.5">
       <c r="A38" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="25.5">
       <c r="A39" s="14">
+        <v>4</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="14">
         <v>5</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E40" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="25.5">
-      <c r="A40" s="14">
-        <v>6</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="17"/>
     </row>
+    <row r="41" spans="1:7" ht="25.5">
+      <c r="A41" s="14">
+        <v>6</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B10:C10"/>
+  <mergeCells count="32">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
@@ -1815,43 +1865,47 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F40">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",F39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fail",F40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",F39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("pass",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F38">
+  <conditionalFormatting sqref="F36:F39">
     <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",F35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fail",F36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",F35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("pass",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F41">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",F40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fail",F41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",F40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("pass",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/testcases/test-cases-template.xlsx
+++ b/testcases/test-cases-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Project Name:</t>
   </si>
@@ -343,9 +343,6 @@
       </rPr>
       <t>(Segun el dominio de: la app, la logica de negocio)</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.javatpoint.com/structural-testing</t>
   </si>
   <si>
     <r>
@@ -782,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +870,36 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -896,33 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1266,68 +1266,68 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="44">
         <v>44567</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
@@ -1340,45 +1340,45 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="37">
         <v>44567</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
@@ -1393,10 +1393,10 @@
       <c r="A10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1406,10 +1406,10 @@
       <c r="A11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -1419,10 +1419,10 @@
       <c r="A12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -1432,10 +1432,10 @@
       <c r="A13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
@@ -1443,12 +1443,12 @@
     </row>
     <row r="14" spans="1:7" ht="24">
       <c r="A14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
@@ -1456,12 +1456,12 @@
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="A15" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -1471,10 +1471,10 @@
       <c r="A16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
@@ -1482,12 +1482,12 @@
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
@@ -1497,10 +1497,10 @@
       <c r="A18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
@@ -1510,10 +1510,10 @@
       <c r="A19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
@@ -1521,12 +1521,12 @@
     </row>
     <row r="20" spans="1:7" ht="24">
       <c r="A20" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
@@ -1536,10 +1536,10 @@
       <c r="A21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
@@ -1547,12 +1547,12 @@
     </row>
     <row r="22" spans="1:7" ht="24">
       <c r="A22" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
@@ -1562,10 +1562,10 @@
       <c r="A23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
@@ -1573,25 +1573,23 @@
     </row>
     <row r="24" spans="1:7" ht="24">
       <c r="A24" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="27" t="s">
-        <v>69</v>
-      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="24">
       <c r="A25" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27"/>
@@ -1601,12 +1599,12 @@
     </row>
     <row r="26" spans="1:7" ht="24">
       <c r="A26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="27"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -1625,10 +1623,10 @@
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
@@ -1638,10 +1636,10 @@
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
@@ -1651,10 +1649,10 @@
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -1664,10 +1662,10 @@
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -1677,8 +1675,8 @@
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -1845,6 +1843,28 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B22:C22"/>
@@ -1855,28 +1875,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="F40">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="fail">
@@ -1902,10 +1900,7 @@
       <formula>NOT(ISERROR(SEARCH("pass",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>